--- a/data/trans_dic/P9_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P9_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee tableta en su vivienda actual</t>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>58,43%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>61,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>61,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,29%</t>
+          <t>60,1%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,02; 64,63</t>
+          <t>50,27; 68,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,53; 64,09</t>
+          <t>46,11; 66,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,11; 61,86</t>
+          <t>53,81; 68,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,84; 61,6</t>
+          <t>53,38; 68,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,58; 61,88</t>
+          <t>55,07; 66,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,02; 61,34</t>
+          <t>53,02; 65,63</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>54,39%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,82; 62,3</t>
+          <t>43,48; 61,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,93; 63,71</t>
+          <t>43,01; 61,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,17; 59,08</t>
+          <t>49,46; 64,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,33; 60,19</t>
+          <t>48,75; 63,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 58,45</t>
+          <t>48,92; 60,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,24; 59,79</t>
+          <t>48,21; 60,48</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>50,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>43,08%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,62; 56,15</t>
+          <t>13,65; 59,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,39; 55,07</t>
+          <t>12,9; 58,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,77; 58,52</t>
+          <t>34,02; 68,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,68; 59,25</t>
+          <t>33,55; 67,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,82; 53,04</t>
+          <t>27,16; 57,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,61; 52,92</t>
+          <t>26,2; 56,74</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>56,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>55,98%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,69; 59,54</t>
+          <t>47,85; 61,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,77; 59,54</t>
+          <t>45,37; 59,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,72; 57,66</t>
+          <t>53,77; 63,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,69; 58,37</t>
+          <t>53,23; 63,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,67; 57,48</t>
+          <t>52,87; 60,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,56; 58,04</t>
+          <t>51,95; 60,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>222828</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>253025</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>268831</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>311280</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>491660</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>564305</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>183860; 251504</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>198318; 286467</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>234266; 298628</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>271604; 346990</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>441191; 532865</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>497799; 616246</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>161395</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>188898</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>197642</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>237897</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>359038</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>426795</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>132488; 187986</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>154570; 219808</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>173156; 224611</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>207345; 271156</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>320339; 399372</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>378334; 474583</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31286</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36491</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41606</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50926</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>72892</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>87418</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11578; 50579</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13126; 59751</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28104; 56276</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33939; 68737</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45472; 96005</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53177; 115140</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>415510</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>478414</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>508079</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>600103</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>923589</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1078518</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>361363; 462001</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>404394; 533324</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>466786; 553285</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>551087; 656123</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>858227; 985369</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1000887; 1156860</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>